--- a/outputs-r202/c__Spirochaetia.xlsx
+++ b/outputs-r202/c__Spirochaetia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -609,6 +614,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -678,6 +688,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -747,6 +762,11 @@
           <t>o__Spirochaetales_C</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>o__Spirochaetales_C(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -816,6 +836,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -885,6 +910,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -954,6 +984,11 @@
           <t>o__Spirochaetales_C</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>o__Spirochaetales_C(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1023,6 +1058,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1092,6 +1132,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1161,6 +1206,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1230,6 +1280,11 @@
           <t>o__SZUA-6</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>o__SZUA-6(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1299,6 +1354,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1368,6 +1428,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1437,6 +1502,11 @@
           <t>o__Spirochaetales_C</t>
         </is>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>o__Spirochaetales_C(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1506,6 +1576,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1575,6 +1650,11 @@
           <t>o__Sphaerochaetales</t>
         </is>
       </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>o__Sphaerochaetales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1644,6 +1724,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1713,6 +1798,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1782,6 +1872,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1851,6 +1946,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1920,6 +2020,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>o__Treponematales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1989,6 +2094,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2058,6 +2168,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2127,6 +2242,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2196,6 +2316,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2265,6 +2390,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2334,6 +2464,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2403,6 +2538,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2472,6 +2612,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2541,6 +2686,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2610,6 +2760,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>o__Treponematales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2679,6 +2834,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2748,6 +2908,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>o__Treponematales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2817,6 +2982,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2886,6 +3056,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2955,6 +3130,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3024,6 +3204,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3093,6 +3278,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3162,6 +3352,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3231,6 +3426,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3300,6 +3500,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3369,6 +3574,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3438,6 +3648,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3507,6 +3722,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3576,6 +3796,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3645,6 +3870,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3714,6 +3944,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3783,6 +4018,11 @@
           <t>o__CADAEX01</t>
         </is>
       </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>o__CADAEX01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3852,6 +4092,11 @@
           <t>o__Sphaerochaetales</t>
         </is>
       </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>o__Sphaerochaetales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3921,6 +4166,11 @@
           <t>o__CADAEX01</t>
         </is>
       </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>o__CADAEX01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3990,6 +4240,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4059,6 +4314,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4128,6 +4388,11 @@
           <t>o__Spirochaetales_C</t>
         </is>
       </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>o__Spirochaetales_C</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4197,6 +4462,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4266,6 +4536,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4335,6 +4610,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4404,6 +4684,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -4473,6 +4758,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4542,6 +4832,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -4611,6 +4906,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -4680,6 +4980,11 @@
           <t>o__Spirochaetales_C</t>
         </is>
       </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>o__Spirochaetales_C(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -4749,6 +5054,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4818,6 +5128,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -4887,6 +5202,11 @@
           <t>o__CADAEX01</t>
         </is>
       </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>o__CADAEX01(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -4956,6 +5276,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -5025,6 +5350,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5094,6 +5424,11 @@
           <t>o__Sphaerochaetales</t>
         </is>
       </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>o__Sphaerochaetales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -5163,6 +5498,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>o__Treponematales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -5232,6 +5572,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>o__Treponematales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -5301,6 +5646,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -5370,6 +5720,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -5439,6 +5794,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>o__Treponematales(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -5508,6 +5868,11 @@
           <t>o__ARS1246</t>
         </is>
       </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>o__ARS1246(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -5577,6 +5942,11 @@
           <t>o__Treponematales</t>
         </is>
       </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -5642,6 +6012,11 @@
         <v>1</v>
       </c>
       <c r="U75" t="inlineStr">
+        <is>
+          <t>o__Treponematales</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
         <is>
           <t>o__Treponematales</t>
         </is>
